--- a/xlsx/马利布 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/马利布 (加利福尼亚州)_intext.xlsx
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E9%95%BF</t>
